--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.144</v>
+        <v>16.633</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.426</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.504</v>
+        <v>14.218</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.389</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.034</v>
+        <v>7.647</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.34806383255719</v>
+        <v>3.385165001147158</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.43899398597905</v>
+        <v>9.133101901118593</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.93468540053777</v>
+        <v>16.45435889660841</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.255101373553408</v>
+        <v>-6.810948023105553</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.52272779158444</v>
+        <v>7.423935280248898</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.73496479447169</v>
+        <v>11.49665840324202</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.900746650498103</v>
+        <v>-1.372569357182911</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.79060961255908</v>
+        <v>21.38524231619729</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.92566577112962</v>
+        <v>26.76508637041539</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.72095069185191</v>
+        <v>16.81553763509901</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.19461977157809</v>
+        <v>22.71451128212146</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.10775640107676</v>
+        <v>27.33256249499868</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.02342743298883</v>
+        <v>2.27454248767576</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.83859490554845</v>
+        <v>12.30231660704094</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.13429811987943</v>
+        <v>21.6291130866101</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.01308978151296</v>
+        <v>12.7212248682161</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.59859234543384</v>
+        <v>27.11826190905533</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.05561864670467</v>
+        <v>34.78874409065868</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.908206461759335</v>
+        <v>1.44766094398436</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.51358451081641</v>
+        <v>14.27177616611212</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.79559642395156</v>
+        <v>22.60530084332962</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.46385278813934</v>
+        <v>2.854445117487529</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.77259873128412</v>
+        <v>28.80840863002123</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.91937022031587</v>
+        <v>43.20773400300658</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.94251982080381</v>
+        <v>32.71353179977962</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.62151557796638</v>
+        <v>45.03646867035872</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>41.58861542696851</v>
+        <v>52.97557093086118</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.08512017771758</v>
+        <v>6.208258396024362</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.33676944861385</v>
+        <v>33.21664712034067</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.58739442781965</v>
+        <v>43.08984907713904</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.5036053859646</v>
+        <v>16.04745799889129</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.94882424705084</v>
+        <v>30.08898921322908</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.57791087379635</v>
+        <v>38.86485850214287</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.10435176825338</v>
+        <v>0.8687975653479185</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.68989198868584</v>
+        <v>18.16673251530356</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.03208259008243</v>
+        <v>25.94390316822448</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.77761831301203</v>
+        <v>4.683737019592101</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.98572213598204</v>
+        <v>36.42628946582359</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.32667575027599</v>
+        <v>51.83721694531324</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.58959673184331</v>
+        <v>47.21413077954385</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47.27300527376974</v>
+        <v>58.64991068669711</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>49.18248331665487</v>
+        <v>67.96669174299841</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.80409821344406</v>
+        <v>10.71634834524339</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.91143115940375</v>
+        <v>43.32017996294287</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.20395577802508</v>
+        <v>54.6731799757368</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.95964543310322</v>
+        <v>6.033885521862828</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.27823379274663</v>
+        <v>29.69222311687714</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.81069049430425</v>
+        <v>36.973070276652</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.956769530611453</v>
+        <v>2.339744585055712</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.45065581886106</v>
+        <v>32.06132771531435</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.68049142527021</v>
+        <v>37.43782617517621</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.68529263648404</v>
+        <v>6.081157434031965</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.79342801128413</v>
+        <v>56.09437985484399</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.95321715921008</v>
+        <v>59.53163562787492</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.45302930241317</v>
+        <v>45.76974629159704</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.95737327726462</v>
+        <v>53.78454573251884</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.86270056950625</v>
+        <v>56.96366597689928</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.53536457261957</v>
+        <v>6.011918309783468</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.52625723733345</v>
+        <v>39.68817802293549</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.83484458413999</v>
+        <v>49.02885749516938</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>18.22259448429372</v>
+        <v>5.538964789059179</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.02851331033154</v>
+        <v>32.41059756398661</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.51368908543515</v>
+        <v>38.58277474848964</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.17824210907806</v>
+        <v>-0.8104336902658247</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.99993411459537</v>
+        <v>22.96613494280491</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.29480940023807</v>
+        <v>32.19447603367986</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.81759525558101</v>
+        <v>-0.7218452223004164</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.34178871883523</v>
+        <v>46.01191904800824</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.50359511850944</v>
+        <v>56.45185636657295</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.23475716223086</v>
+        <v>43.91101299958515</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.9404603903069</v>
+        <v>57.8578069289218</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>43.89813064404076</v>
+        <v>64.46843465269799</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.16717551197773</v>
+        <v>0.1637357229233345</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.5868475721656</v>
+        <v>44.6813527426567</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.8487172061693</v>
+        <v>53.21339938711502</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.72362958733084</v>
+        <v>7.699170637788271</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.37263000005595</v>
+        <v>35.46319460156921</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.04132672203942</v>
+        <v>44.23565640700717</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.39075306224387</v>
+        <v>-2.638140882962986</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.1846878847575</v>
+        <v>27.0626872083859</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.54368694313722</v>
+        <v>35.95574571605839</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.16002955159502</v>
+        <v>0.02306545857244657</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>40.56451707187216</v>
+        <v>54.19221648549312</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.93107185905765</v>
+        <v>67.99457562110801</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43.90998760115497</v>
+        <v>56.80257369412497</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>49.62378818014435</v>
+        <v>71.51451537407918</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>51.5233441000553</v>
+        <v>79.95262043156738</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32.91167777653325</v>
+        <v>1.82035447992449</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>45.18252821617696</v>
+        <v>54.43165138436645</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>48.48538515335851</v>
+        <v>64.54377486171542</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.36172431575877</v>
+        <v>15.41789553641297</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.63182548673241</v>
+        <v>29.46144022428305</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.16387481812512</v>
+        <v>34.1979204468872</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.252408936996332</v>
+        <v>3.06671227027951</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.71756566436277</v>
+        <v>29.35541759717294</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.933509916458</v>
+        <v>31.30915641335626</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.001980902452</v>
+        <v>7.318883105501243</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.07711596858159</v>
+        <v>53.29278429643878</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.23352676155589</v>
+        <v>52.84265342453327</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.73130080751626</v>
+        <v>42.08731042025063</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.23901545020511</v>
+        <v>51.9448183313775</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.13744839205962</v>
+        <v>51.94004015378009</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.8585452721295</v>
+        <v>18.26890255900547</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.80999707922927</v>
+        <v>34.15635679024841</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.11692968122364</v>
+        <v>42.10373593180366</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.88819095845247</v>
+        <v>18.94018885161059</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.64841536015823</v>
+        <v>38.05166134690019</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.13257676220361</v>
+        <v>41.99885154414268</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.74070937253426</v>
+        <v>3.935218295940956</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.5381883885545</v>
+        <v>26.97403033233671</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.8182244680188</v>
+        <v>33.04706275651516</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.40294111885503</v>
+        <v>4.777574190523922</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>32.8973521919958</v>
+        <v>49.48185838915855</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.05554744610174</v>
+        <v>56.86401475999723</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.78357994280768</v>
+        <v>47.83488952780206</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.49287957098984</v>
+        <v>61.70261761794013</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.44403497846834</v>
+        <v>64.89894264981668</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.75744620378061</v>
+        <v>17.65495264714109</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.14005685757493</v>
+        <v>45.71288542808206</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.40130075945726</v>
+        <v>53.63300434636305</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.35387563945764</v>
+        <v>19.10768140284149</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.96011264649479</v>
+        <v>38.79951982376544</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.62734463516438</v>
+        <v>45.13885765326576</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>17.92400335494075</v>
+        <v>0.01678868953980839</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.69498860011943</v>
+        <v>29.07463329909261</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.03955618388446</v>
+        <v>34.56554102201424</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.71374209741627</v>
+        <v>3.531528065864748</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>40.09064804808928</v>
+        <v>55.48163457680108</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44.45268459038882</v>
+        <v>66.06705832240262</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.43204429514957</v>
+        <v>58.67595457768304</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>49.1498468627513</v>
+        <v>73.01479072946582</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.04295001923953</v>
+        <v>78.45252334983208</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.47474108382593</v>
+        <v>18.57930726310296</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.709531347969</v>
+        <v>54.63937109164569</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>48.01125286258345</v>
+        <v>63.53560717057793</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.69517817981234</v>
+        <v>5.240856996587922</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.68963303015558</v>
+        <v>11.78765099967123</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.16040958927355</v>
+        <v>17.52468381018994</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.59273374197334</v>
+        <v>-3.869592076332765</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.73120861136423</v>
+        <v>8.683996317698472</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.92694685053411</v>
+        <v>12.13219136327399</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>8.235217040497357</v>
+        <v>1.220817543420566</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.01380839079663</v>
+        <v>22.83857678536373</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.11996311200993</v>
+        <v>27.53565898447192</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.92797662608892</v>
+        <v>17.25990450420844</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.37349279826383</v>
+        <v>22.79600962204144</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.28529384417343</v>
+        <v>31.34940656036817</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.33040304103555</v>
+        <v>14.33160343192911</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.05791932238618</v>
+        <v>25.49667209361695</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.33670432018863</v>
+        <v>32.18151383571023</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.29884040813013</v>
+        <v>12.36099832134828</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.78680911867971</v>
+        <v>27.17437346671211</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.21978852365582</v>
+        <v>33.33157492126334</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.182351603310744</v>
+        <v>1.088334876854177</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.65774566939164</v>
+        <v>12.74780584557919</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.92348985380518</v>
+        <v>20.14669241743564</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.73340495566504</v>
+        <v>2.087313160680935</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.93054241344566</v>
+        <v>26.16177974298378</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.04909306201945</v>
+        <v>39.71539457543784</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.07928502329615</v>
+        <v>26.92629313414456</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.72852594196877</v>
+        <v>39.45168748137426</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.69521443181557</v>
+        <v>51.29251208332617</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.31839826626766</v>
+        <v>10.44667394234138</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.48141636829638</v>
+        <v>37.81817683087903</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>37.71598403012851</v>
+        <v>44.83947285403153</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.80823873611021</v>
+        <v>16.3300478074738</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.15314012255207</v>
+        <v>30.23555762484686</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.75848549809322</v>
+        <v>37.35246575756535</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.38353670507225</v>
+        <v>0.634676336835085</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.83778574272306</v>
+        <v>16.52283549527307</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.16434316249409</v>
+        <v>23.14711879333625</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.05755471360996</v>
+        <v>5.154930856697391</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.151766660832</v>
+        <v>34.87798990217594</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.46502251737856</v>
+        <v>49.39490196875072</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.7369610509579</v>
+        <v>41.35011583183113</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.39181727376929</v>
+        <v>52.75020132140277</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.29787298696888</v>
+        <v>66.61153717437112</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.04775226199867</v>
+        <v>15.54453336167514</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.06518354687013</v>
+        <v>47.81358725718071</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.34181793588526</v>
+        <v>55.84889827424196</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.74721621268383</v>
+        <v>14.2034650098814</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.87579984742031</v>
+        <v>26.9364298327407</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.34645107314426</v>
+        <v>29.99332464026968</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.64965950957987</v>
+        <v>0.5923515443637228</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.94723255468576</v>
+        <v>25.67829187929438</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.13903461113861</v>
+        <v>28.63592214407045</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.3464247909934</v>
+        <v>8.293033577246646</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.26814591496614</v>
+        <v>49.17792235751293</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.38465956284114</v>
+        <v>49.49383562802055</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.09038899826153</v>
+        <v>36.30852815362884</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.57324424309267</v>
+        <v>43.35819400045688</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.47448675385691</v>
+        <v>46.13643679507049</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.3998517745439</v>
+        <v>19.1806455527183</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.19141980287486</v>
+        <v>30.0277252653721</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.48379516843514</v>
+        <v>34.98811497300481</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.51063494426299</v>
+        <v>24.62057408285301</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.12437435267496</v>
+        <v>43.36246601566093</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.55223400864774</v>
+        <v>45.07782275556606</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.39730855993585</v>
+        <v>7.745302870025156</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.0245283646764</v>
+        <v>29.93529742651108</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.28185737409454</v>
+        <v>35.61796253966125</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.00625850907043</v>
+        <v>11.5708266971628</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.33889781358703</v>
+        <v>52.09270390358466</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.46212798345269</v>
+        <v>59.61946905437998</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.402712215609</v>
+        <v>50.8178968760202</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>43.08814978076391</v>
+        <v>63.2757983064584</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.04306330380686</v>
+        <v>68.24469888815759</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.55579586988069</v>
+        <v>25.87826598149469</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.77779065456608</v>
+        <v>51.16068815677954</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.02392136029432</v>
+        <v>55.93228656514822</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.76480867782401</v>
+        <v>22.63623150954636</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.23749718368609</v>
+        <v>40.59336179231879</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.84286477097697</v>
+        <v>43.99871707846502</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>19.35360885719546</v>
+        <v>1.179041785430641</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.95749628390804</v>
+        <v>26.97740787541862</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.28095118170971</v>
+        <v>32.40609762942806</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.07695011078982</v>
+        <v>7.555732942817869</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.30652430773732</v>
+        <v>53.24669576605534</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>45.63045186434292</v>
+        <v>62.97381198082009</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.80767127270723</v>
+        <v>57.84112290124513</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>50.50085477695157</v>
+        <v>69.61523792808667</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>52.39746392988925</v>
+        <v>76.78647600305321</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.0328995285057</v>
+        <v>22.8011301138924</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.11212940361321</v>
+        <v>54.07845093769681</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>49.4037010555565</v>
+        <v>60.7602369248669</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.44821865263872</v>
+        <v>9.194682845335322</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.51421912945181</v>
+        <v>25.16138550379927</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.97473111790928</v>
+        <v>31.55883043225467</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.41414180605743</v>
+        <v>-1.098474829037983</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.64074143191378</v>
+        <v>29.46468062118693</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.80229152148648</v>
+        <v>33.95962003762959</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.07544378379783</v>
+        <v>4.851629072159398</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.89910151831047</v>
+        <v>55.29526253694667</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.99264857972356</v>
+        <v>55.73194486154745</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.54634439188776</v>
+        <v>35.61047733092981</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.97131266148267</v>
+        <v>44.25251449978057</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.84470383443637</v>
+        <v>46.06111966266647</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.84993839230595</v>
+        <v>6.18510073238572</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.58064380354505</v>
+        <v>27.80524849069876</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.84428769504367</v>
+        <v>32.58789447258879</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.30956188163228</v>
+        <v>21.15214056389968</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.86037584651049</v>
+        <v>43.75629937012307</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.27334265115277</v>
+        <v>47.43199005653382</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9.242622211371286</v>
+        <v>5.226351532559605</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.79758810604547</v>
+        <v>33.29989489745527</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.0235989287038</v>
+        <v>40.63770859740431</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.8244398617291</v>
+        <v>7.744827074573124</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.06274863579853</v>
+        <v>59.33629883451405</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.15780986530368</v>
+        <v>65.46631882780056</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.94538374455881</v>
+        <v>51.36917078858421</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.56792490976979</v>
+        <v>65.74392006007947</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>41.49440388492947</v>
+        <v>70.40437794869668</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.09667289313215</v>
+        <v>15.7760377311909</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.25672388703008</v>
+        <v>54.74702269855676</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>38.47495452560553</v>
+        <v>59.45455038455022</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.64473158507327</v>
+        <v>20.17306659124095</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.04473642362829</v>
+        <v>42.00730956863512</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.63789929902681</v>
+        <v>47.62513759397038</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.27699726190926</v>
+        <v>-1.040059739126733</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.80541299835602</v>
+        <v>30.32092143395865</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.09339160139196</v>
+        <v>37.29521027208098</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20.98559339660455</v>
+        <v>4.31237455656786</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>38.10867483095915</v>
+        <v>60.52668760569073</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.40463627176235</v>
+        <v>69.7627014018329</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>41.43157233766324</v>
+        <v>58.75578378311603</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>47.06665074839059</v>
+        <v>73.6915864753414</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>48.93356930774203</v>
+        <v>79.06181219289122</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.65413261795049</v>
+        <v>12.65690734532318</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>42.66782096117183</v>
+        <v>58.17090538972538</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>45.92818944867227</v>
+        <v>64.01616878427832</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.883346871207856</v>
+        <v>1.499290210525899</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.81201737244237</v>
+        <v>5.101191337064677</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.29523528617197</v>
+        <v>10.07449585154185</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.1852177488932938</v>
+        <v>-4.69567517265024</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.89138879753144</v>
+        <v>7.619666000665077</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.07190435809551</v>
+        <v>10.00914117605141</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.404809240577237</v>
+        <v>-0.005403308841238186</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.0888247745897</v>
+        <v>21.38972911020551</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.19676253686949</v>
+        <v>22.01997877222692</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.91431170524876</v>
+        <v>18.15045464952935</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.32115989896737</v>
+        <v>25.52942643801865</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.20341066979305</v>
+        <v>25.78469654188964</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.24990201248012</v>
+        <v>0.6109750039790498</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.93564536644935</v>
+        <v>8.983881770321759</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.20003379932215</v>
+        <v>14.73730175631941</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11.66073380834833</v>
+        <v>10.45675516393291</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.08966389133146</v>
+        <v>24.23030257042454</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.52968511910699</v>
+        <v>30.09892009461082</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>4.559026225607042</v>
+        <v>3.943170219195238</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.97971689870885</v>
+        <v>17.06701139583608</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.22920891171021</v>
+        <v>25.05014734064049</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.070195739224472</v>
+        <v>4.851774041628488</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.18358515661866</v>
+        <v>32.19193949592497</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.2977262010073</v>
+        <v>41.80782309172068</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.23481606236256</v>
+        <v>33.39455799991363</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.84328469751448</v>
+        <v>46.69346700618208</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.77926951910231</v>
+        <v>50.42594369802642</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>18.41335711601643</v>
+        <v>6.065663973081016</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.53753599167505</v>
+        <v>32.27426046928782</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.75832809158945</v>
+        <v>39.50138780420458</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.26311438247298</v>
+        <v>12.63629424518284</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.54079673567844</v>
+        <v>26.98504464832021</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.15854860370917</v>
+        <v>34.57991046405013</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.86811875615415</v>
+        <v>1.103976106953027</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.26563119286932</v>
+        <v>20.32926680957787</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.57362242840639</v>
+        <v>27.83943108243211</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.50820315503498</v>
+        <v>5.229998084324038</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.50786894158109</v>
+        <v>39.9054746512099</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>37.81911269430549</v>
+        <v>51.32315561686535</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.00169170596621</v>
+        <v>47.93219437929575</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>42.61873022399581</v>
+        <v>61.63332955190843</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.49485825502521</v>
+        <v>66.26225434516276</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.2525598971215</v>
+        <v>11.95020102610628</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.22824840847414</v>
+        <v>44.65380532127178</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>41.48777902413507</v>
+        <v>52.968216967515</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.511148934439085</v>
+        <v>2.135660112796572</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.66877789539634</v>
+        <v>2.931871508134932</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.21467249582076</v>
+        <v>11.91691244430889</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1.365834803297577</v>
+        <v>-0.2943819221881796</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17.70524657210036</v>
+        <v>6.256543709774164</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.95759710576835</v>
+        <v>13.24026976059695</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>6.009191057577791</v>
+        <v>0.7983994954507523</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>22.97981384547749</v>
+        <v>13.96299818514262</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.16931863196412</v>
+        <v>21.29010627108761</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.86057025790893</v>
+        <v>7.047839183421843</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.39247036521081</v>
+        <v>15.10340569341086</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.32618636036686</v>
+        <v>26.086676317331</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.10524152817166</v>
+        <v>1.769672313546508</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.97217087764399</v>
+        <v>2.947893803856672</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.30072242828598</v>
+        <v>7.851681669329295</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>13.2568168580037</v>
+        <v>0.3457050234797236</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.90971982542272</v>
+        <v>6.280884012883519</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.41322815882973</v>
+        <v>15.96603900594039</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>6.093719983263437</v>
+        <v>-2.533275903556216</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.77080034012828</v>
+        <v>0.1666827010662928</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.09062122748896</v>
+        <v>11.42696040855827</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.64914268007622</v>
+        <v>-5.55213762679054</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.0408848892693</v>
+        <v>6.531994333051486</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.23818863540133</v>
+        <v>23.43143684064664</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.16215620389548</v>
+        <v>7.609826038579357</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.89808726780135</v>
+        <v>23.23457477961307</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.88844880679723</v>
+        <v>38.17700065009018</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.24693449966706</v>
+        <v>-5.598171795903554</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.55046229212309</v>
+        <v>8.613203663653195</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.83309237898398</v>
+        <v>13.89085389973914</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.77504762701567</v>
+        <v>2.822683895477482</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.28446424327292</v>
+        <v>8.829282171281434</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.96656657513962</v>
+        <v>20.95972369523169</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.32284508754685</v>
+        <v>-4.089988225616068</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.97883463017848</v>
+        <v>3.445931152854698</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.36345240582457</v>
+        <v>15.25568818425226</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>18.00015455001395</v>
+        <v>-3.869934839407776</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.28732010501524</v>
+        <v>14.25140926458759</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>39.68592308500703</v>
+        <v>33.93548176129421</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.8519708726752</v>
+        <v>21.35972608684973</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.59940752934004</v>
+        <v>37.2349747914141</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>46.52646331447198</v>
+        <v>54.40203828450801</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.00832704629318</v>
+        <v>-3.405939879656657</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>40.16867278310288</v>
+        <v>18.03440278076032</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.49518730683036</v>
+        <v>25.64772544919911</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>14.39312449940303</v>
+        <v>13.68044796252411</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.58165805231368</v>
+        <v>22.58787869405431</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.10856764024035</v>
+        <v>35.31528156870483</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.479578693745427</v>
+        <v>5.76730071078839</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.8911822624312</v>
+        <v>38.00255361079105</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.09420567281412</v>
+        <v>41.78256265871052</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.18147254290645</v>
+        <v>12.65511591936834</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.17278345840487</v>
+        <v>59.73197768087974</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.3224649579404</v>
+        <v>62.69310033394274</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.91436162363557</v>
+        <v>47.60557517225598</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37.3899049717343</v>
+        <v>54.02347788646502</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.28429401489836</v>
+        <v>54.00169835922675</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.10561580350232</v>
+        <v>26.99980058634571</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.97592801529525</v>
+        <v>40.10168634589203</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.27777345208669</v>
+        <v>54.37910824427971</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.80734175127414</v>
+        <v>11.14534707840754</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.48494606376822</v>
+        <v>25.64515997343665</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.9591888980419</v>
+        <v>34.49721111369166</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.85487059816152</v>
+        <v>-2.534450059438655</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.59581769948529</v>
+        <v>24.09163318417143</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.8601987956512</v>
+        <v>30.04431211017805</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.4716473633397</v>
+        <v>-0.5483137798650546</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.87967207046444</v>
+        <v>44.61061863211476</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>38.02694686036877</v>
+        <v>52.50349912146952</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.85447747521111</v>
+        <v>41.32408797218862</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.52980516488786</v>
+        <v>52.28361421567283</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>44.47662053906522</v>
+        <v>54.75618510482141</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.89385839796881</v>
+        <v>14.50220032282731</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.19489651476017</v>
+        <v>41.28340741146714</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.44735314519475</v>
+        <v>50.93075567397706</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.19824637025114</v>
+        <v>14.70677571820319</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.72143278184896</v>
+        <v>28.67611063760968</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.38139917373988</v>
+        <v>41.06329089583495</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>18.95528051388231</v>
+        <v>-1.752649145826481</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.66800919039056</v>
+        <v>29.31734914111566</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.99770047064806</v>
+        <v>35.83100741654802</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.69673918809273</v>
+        <v>2.65641206626897</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.9871034299811</v>
+        <v>53.93471042792667</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>45.34053776009639</v>
+        <v>66.36475601141875</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>44.40730860711606</v>
+        <v>55.71959356421648</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>50.09345930557321</v>
+        <v>66.84216741777745</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>51.98150897157615</v>
+        <v>71.15160991224674</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.51734494266974</v>
+        <v>18.17967914068704</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.67081859912996</v>
+        <v>52.50292029777937</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>48.96631279644382</v>
+        <v>64.85786890713921</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.913062509277669</v>
+        <v>0.5852004285802508</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.81101336233196</v>
+        <v>3.265307738924804</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.29974021050556</v>
+        <v>11.98031098272494</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-2.15126838037223</v>
+        <v>-3.335220039308069</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.8468232229243</v>
+        <v>1.158445830237952</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.04397173290933</v>
+        <v>8.377272767536454</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.407207988489244</v>
+        <v>0.4431647513844439</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.01577463969376</v>
+        <v>14.03631913348585</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.13620438736854</v>
+        <v>18.9398154562777</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.73753732211209</v>
+        <v>9.349054846657538</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.10312767821431</v>
+        <v>13.5499050609038</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.99201568357573</v>
+        <v>19.98999542408151</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>11.10409670836237</v>
+        <v>-2.23404284032928</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.78281516466619</v>
+        <v>2.801765545769143</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.0466771197581</v>
+        <v>9.3628908699595</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>9.514057201235602</v>
+        <v>2.118282230993884</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.91045209958616</v>
+        <v>12.76430303666162</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.36056968002618</v>
+        <v>22.75770620975079</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>2.423453009022467</v>
+        <v>-0.3332608771272447</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>18.76598356962153</v>
+        <v>3.33442064295852</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.03385526909137</v>
+        <v>16.3222771143916</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.897919661656072</v>
+        <v>-0.3540408013665228</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.93521695658597</v>
+        <v>16.18228059780441</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.06565413461364</v>
+        <v>30.57156454514947</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.88575328301022</v>
+        <v>15.92508021236364</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.45164582642504</v>
+        <v>26.42466563635006</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.39501142487841</v>
+        <v>36.83000254902126</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.09609442193255</v>
+        <v>-3.847443605411101</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.20904362577598</v>
+        <v>14.95472724041831</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.43267650055793</v>
+        <v>24.16107058799535</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.23204050284528</v>
+        <v>7.367353672893088</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.47809904743545</v>
+        <v>18.34744573322369</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.10063327147589</v>
+        <v>29.92040985052999</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>9.846060556357846</v>
+        <v>0.4852386702498706</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.16507439650421</v>
+        <v>9.149922782553759</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.49008034865147</v>
+        <v>21.56338947506073</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.45364327111093</v>
+        <v>3.32692809530279</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.3774712002232</v>
+        <v>26.2734076287597</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.69989411202086</v>
+        <v>42.47378157766288</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.77404577622914</v>
+        <v>32.28735545540299</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>40.34739407742426</v>
+        <v>42.50670895694601</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.23061954412459</v>
+        <v>56.17643274268541</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.0547406167653</v>
+        <v>5.283483879808685</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.02009095752572</v>
+        <v>29.47162751732533</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>39.27883480200515</v>
+        <v>40.38359519056515</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>9.892065779946758</v>
+        <v>-7.227586763092376</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.02344160545517</v>
+        <v>-0.3356170622158317</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.51027206188214</v>
+        <v>4.782652044823223</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2.722643874515079</v>
+        <v>-17.53846542044839</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.99863678871135</v>
+        <v>-1.270569044155565</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.18364869166048</v>
+        <v>1.604308755674793</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.417429347674624</v>
+        <v>-13.92923433642379</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.30897539720267</v>
+        <v>15.48618459052747</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.42836019397457</v>
+        <v>16.40340013916753</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.91074471349739</v>
+        <v>6.60085096692471</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.37227458300032</v>
+        <v>12.20140304213206</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.25472405015159</v>
+        <v>13.69702736894422</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.15948778867025</v>
+        <v>-10.50832036601643</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.9753523295149</v>
+        <v>-1.142981113895459</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.25466482668131</v>
+        <v>3.143957150847044</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.8213207847909</v>
+        <v>18.66367252378247</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.44072843311696</v>
+        <v>32.39044294721025</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.88311029574005</v>
+        <v>37.36810726256606</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>7.619072893438277</v>
+        <v>5.582674727644047</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.22793426564409</v>
+        <v>21.30616745908445</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.4786990043482</v>
+        <v>28.85733608897748</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.23137252011998</v>
+        <v>8.221340996825688</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.54247072818044</v>
+        <v>39.96646028771075</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.66608301141966</v>
+        <v>48.76500401978548</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.37583546549793</v>
+        <v>39.17948070788607</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.03761902540482</v>
+        <v>50.31894968031619</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.97323631278516</v>
+        <v>54.30531316582889</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.46993313211654</v>
+        <v>14.03260926788901</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.71549104475634</v>
+        <v>38.09356587860897</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.95202039018037</v>
+        <v>44.6293207205289</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.28327037575736</v>
+        <v>21.02687852614871</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.75100488034738</v>
+        <v>35.86858756759587</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.37377436847156</v>
+        <v>43.09771563010192</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>14.78811998467659</v>
+        <v>3.432470296087544</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.37168045976279</v>
+        <v>25.94874144269222</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.68580015435346</v>
+        <v>32.4006081723664</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>19.52983004358206</v>
+        <v>8.745204603355219</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.72486604862171</v>
+        <v>48.03425444331391</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>41.0499270779311</v>
+        <v>59.56908868416782</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.01032816316153</v>
+        <v>52.6118233029499</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>45.68147500733237</v>
+        <v>64.36893607572343</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>47.55841722960474</v>
+        <v>70.21548553138258</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.17269021591003</v>
+        <v>16.56799242750721</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.27164749362208</v>
+        <v>49.34901476488311</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>44.54753448371066</v>
+        <v>56.13732739818168</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>5.82610819605971</v>
+        <v>9.728548558384944</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.69264218397867</v>
+        <v>11.03584898462201</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.17478589176599</v>
+        <v>17.29598900800549</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1.202971548011174</v>
+        <v>3.071933335727181</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.77520092374328</v>
+        <v>9.71789384619764</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.96638957945034</v>
+        <v>15.87837280565027</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>3.402679883306824</v>
+        <v>7.469515524956606</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.01323822435115</v>
+        <v>21.26938633832729</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.12175638904993</v>
+        <v>25.83091586310802</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.71121447824368</v>
+        <v>16.19691918767859</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.09642988551366</v>
+        <v>20.99491125514797</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.98866053528796</v>
+        <v>27.32310435063712</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.09632764855854</v>
+        <v>9.247652956633075</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.74356817283412</v>
+        <v>10.02336977372606</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.00242136199702</v>
+        <v>16.61045139366716</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.00724152393142</v>
+        <v>3.327080612625466</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.36806937569536</v>
+        <v>9.543184279096053</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.81027317633731</v>
+        <v>16.79215331937063</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>2.943047115633725</v>
+        <v>-3.276543645117812</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>19.25955027831536</v>
+        <v>-0.8270314543264874</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.52118884712525</v>
+        <v>11.04667154989832</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>7.456172232440984</v>
+        <v>-3.337946135902385</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.49050255766583</v>
+        <v>9.209741293474679</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.60943275632328</v>
+        <v>23.42506986346785</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.42028335427662</v>
+        <v>9.114480309668792</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.00577830695858</v>
+        <v>18.52294785447046</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.95294360865686</v>
+        <v>29.68752838311528</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.65202675322807</v>
+        <v>-4.044151076831994</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.73348123972903</v>
+        <v>8.340961099987368</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.95044623574625</v>
+        <v>17.09292335600824</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.93705296415093</v>
+        <v>14.87718105373956</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.14574625585635</v>
+        <v>22.56788884138906</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.76462854345345</v>
+        <v>30.91926577928702</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.5618469816014</v>
+        <v>1.526282841824738</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.85687318366949</v>
+        <v>10.65414705356916</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.17674699439037</v>
+        <v>21.2471747508052</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.2179726510763</v>
+        <v>6.010844151396313</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>32.13961697209379</v>
+        <v>27.03015489057857</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.45327348246023</v>
+        <v>42.69102921204195</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.51882258618791</v>
+        <v>31.15662668358978</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>41.11070138475476</v>
+        <v>40.88509386441508</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.99666282220151</v>
+        <v>53.54430130825979</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.8149518373958</v>
+        <v>8.856919503622763</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.749762841153</v>
+        <v>28.70429403469679</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>40.0039932877482</v>
+        <v>36.8186250642275</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.558919599520888</v>
+        <v>3.378369928941751</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.28834539671608</v>
+        <v>1.673885925646431</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.71446789659052</v>
+        <v>2.663436127441628</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-5.527365940394365</v>
+        <v>1.499953343283821</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.26137404928867</v>
+        <v>2.161771379488826</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.40151952245333</v>
+        <v>3.168866312760784</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-0.9998391267148889</v>
+        <v>3.119156032926256</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.43049204679397</v>
+        <v>8.212075133983163</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.48704993202424</v>
+        <v>7.22246304755059</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.09881139733824</v>
+        <v>1.525647888887377</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.43542647080481</v>
+        <v>1.128312334632028</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.3052737312147</v>
+        <v>3.699735204206775</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.599169030883054</v>
+        <v>0.5816052956217561</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.1232294662323</v>
+        <v>-3.81904327874858</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.34453599882978</v>
+        <v>-2.097513492309162</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.978766593005417</v>
+        <v>0.9482438567659415</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.19949117024439</v>
+        <v>3.266123503019131</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.58573209493546</v>
+        <v>4.375699825745144</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.137328677270126</v>
+        <v>-1.233587282596801</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.98741318231729</v>
+        <v>-4.208360669227503</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.19655431139575</v>
+        <v>1.175446044484218</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.298321014886657</v>
+        <v>-3.491340154532381</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.15154965519242</v>
+        <v>0.8483156591264702</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.21711970839041</v>
+        <v>7.163925200405302</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.04794897185487</v>
+        <v>-1.828498158392321</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.5832185862925</v>
+        <v>2.538840731628568</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.50717873400072</v>
+        <v>8.527200332271036</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.39423436441691</v>
+        <v>-8.221638201314462</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.34855571712658</v>
+        <v>-2.543724044290386</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.52877081897094</v>
+        <v>0.7305825572325517</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.95055688513432</v>
+        <v>14.14841317907407</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.01803711511487</v>
+        <v>17.77961510594031</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.57869226085784</v>
+        <v>20.30759439895456</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>6.513779080440891</v>
+        <v>4.373842634371826</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.6183030676604</v>
+        <v>8.12297196878022</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.8856937163663</v>
+        <v>12.46165961849589</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.10133299018616</v>
+        <v>7.386744993147872</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.83974558631648</v>
+        <v>19.70451711788671</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.09889461275157</v>
+        <v>27.55726656206552</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.18471523237376</v>
+        <v>22.11113556641722</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.72753062532337</v>
+        <v>26.77322362088718</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>38.59079264796151</v>
+        <v>34.76341402332896</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.59560991515221</v>
+        <v>6.251843255183232</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.40162635338429</v>
+        <v>19.07229804397777</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.61816171297777</v>
+        <v>22.24484143132663</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.47992693715476</v>
+        <v>19.80532897713987</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.64136557321255</v>
+        <v>26.17255599514648</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.1904955705416</v>
+        <v>33.99010488454714</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>5.302905342367513</v>
+        <v>6.59872783803398</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.65949583198304</v>
+        <v>21.41227806868208</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.91270906786127</v>
+        <v>23.36798954429564</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.02876343673297</v>
+        <v>14.85160034596774</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.02415742261133</v>
+        <v>39.14536441742348</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.20632970554934</v>
+        <v>41.9236383223593</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.97574693239021</v>
+        <v>35.0813392335607</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.48056821288322</v>
+        <v>40.96716488387095</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.40391025841558</v>
+        <v>42.98610806526106</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.19188357354658</v>
+        <v>27.72788123971067</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>31.07180346750274</v>
+        <v>35.14136271171104</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.39857002304673</v>
+        <v>40.74287284301793</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.89179186971655</v>
+        <v>9.667657171774437</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.55110194461474</v>
+        <v>21.19460549815682</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.05813461093325</v>
+        <v>27.80297170681058</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.700818652730575</v>
+        <v>-5.225959771154351</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.39649537366966</v>
+        <v>4.918800611401821</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.71836884536423</v>
+        <v>9.496949787557526</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>14.33265411108442</v>
+        <v>-1.970251843989985</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.75123164061469</v>
+        <v>20.7211798468898</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.94152794728993</v>
+        <v>30.66687243037283</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>34.94732280694218</v>
+        <v>23.07452991014505</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>40.65744497745692</v>
+        <v>32.80724429977482</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.63509477573871</v>
+        <v>36.99131024043328</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.00399619651139</v>
+        <v>8.056997411438161</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.32387955177509</v>
+        <v>26.77795958429263</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.60443187787621</v>
+        <v>31.45546864258566</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.46781544021588</v>
+        <v>19.22299089863627</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.98358327414523</v>
+        <v>30.63415749450407</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.66856666423998</v>
+        <v>39.58831006550567</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.98114764481597</v>
+        <v>0.7700672235443591</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.656257326785</v>
+        <v>15.84599995980288</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.04085103574644</v>
+        <v>20.77705870424488</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.7373753450448</v>
+        <v>7.163284908347762</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>39.05234574452996</v>
+        <v>36.23010056327023</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>43.44184848269593</v>
+        <v>48.66614462868198</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>42.68727082756495</v>
+        <v>45.21539337686194</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>48.40391474548225</v>
+        <v>54.86417232895569</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>50.32212879061014</v>
+        <v>60.97982466548653</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.8160590580029</v>
+        <v>19.43982000329017</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>43.98990076992818</v>
+        <v>43.93589542812019</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>47.31353066869094</v>
+        <v>50.98152419890049</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.31221866377212</v>
+        <v>15.5344126910597</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.39163042120324</v>
+        <v>31.66077754566383</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.86147313620693</v>
+        <v>38.29017163427845</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.311563548713842</v>
+        <v>7.39039528117091</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.50374193428503</v>
+        <v>32.52384294261897</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.68678465442748</v>
+        <v>35.99151582930399</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>9.974470452461356</v>
+        <v>14.05547883949922</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.78599521198848</v>
+        <v>51.39968335601019</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.8880615406565</v>
+        <v>55.53634982601959</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.42473789582537</v>
+        <v>48.79180048790509</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.84221400260981</v>
+        <v>53.91468177559099</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.72445510553793</v>
+        <v>56.34221707091532</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>18.67605403663442</v>
+        <v>15.7959440703974</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.47215186570182</v>
+        <v>38.84513997556594</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.73572168771305</v>
+        <v>47.6362210691412</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.50692174350315</v>
+        <v>8.712017785553684</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.0715052991313</v>
+        <v>28.02442024844613</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.49852217476769</v>
+        <v>34.10911323723037</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.46901314289796</v>
+        <v>-0.6555049385002008</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.99000740117646</v>
+        <v>18.7349498452398</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.23943226798821</v>
+        <v>26.27141672447137</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.04252778361522</v>
+        <v>1.004117621062733</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.26955869435754</v>
+        <v>35.51722523072323</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.37668147297343</v>
+        <v>46.72089290143583</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.1354430968448</v>
+        <v>38.8472122723761</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.75260660090554</v>
+        <v>49.12069025253557</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.68716357189955</v>
+        <v>54.36422115069571</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.2360530417877</v>
+        <v>2.80875626265852</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.45905720705672</v>
+        <v>34.42962560092978</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.67829833525226</v>
+        <v>44.11422861863444</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.94674021015043</v>
+        <v>9.338157990990894</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.35537121257986</v>
+        <v>29.70712632794819</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.96089607352883</v>
+        <v>38.39248291818463</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>16.61223185451974</v>
+        <v>-3.202380992153635</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.10481089993588</v>
+        <v>22.1503523429444</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.41721527224073</v>
+        <v>29.87114245269457</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.31584657348285</v>
+        <v>0.428405061150201</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.42386156100963</v>
+        <v>41.90819472640781</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.73079605237916</v>
+        <v>56.74910543108398</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.74013626026021</v>
+        <v>51.03123297347356</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.36313408591592</v>
+        <v>61.76863007189637</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.24075018428867</v>
+        <v>69.99059599233816</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.90979829934902</v>
+        <v>3.778240647700656</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.9848585030837</v>
+        <v>43.59918243192358</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>46.24302568567113</v>
+        <v>55.05753495452309</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>15.10051386477098</v>
+        <v>15.86306404061779</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.39939909256764</v>
+        <v>26.46676865581679</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.91819796173599</v>
+        <v>34.54730177971413</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>8.065452091180752</v>
+        <v>5.643032486977646</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.59093234071761</v>
+        <v>33.44138226541857</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.81495481697884</v>
+        <v>35.6077724182506</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.78821013114085</v>
+        <v>12.44917257224836</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.92155454527481</v>
+        <v>50.53849781197145</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.07927840912939</v>
+        <v>53.88881910738893</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.80067864067466</v>
+        <v>40.15575784251715</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.33078406148724</v>
+        <v>45.12253682006636</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.25226671231728</v>
+        <v>47.77205800440643</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.97547905256532</v>
+        <v>18.70422793905941</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.94397595113247</v>
+        <v>35.05907404865478</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>37.26207707357284</v>
+        <v>45.96440515061521</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>19.58512353012734</v>
+        <v>11.66085612892854</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.37253195633151</v>
+        <v>28.60106519140642</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.84611044269168</v>
+        <v>34.63764965133676</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>12.53119719870997</v>
+        <v>-1.35256196672961</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.38584509089294</v>
+        <v>21.77831321043135</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.67490769527797</v>
+        <v>26.49143637412368</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>17.1625163930856</v>
+        <v>0.5649832631174689</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.70801350192907</v>
+        <v>38.36393979913382</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.87129587004985</v>
+        <v>48.51260458884374</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.82929174951058</v>
+        <v>37.84050953536791</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.56340323860515</v>
+        <v>48.65296260967939</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.538127184302</v>
+        <v>53.29473766185852</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.84793023819076</v>
+        <v>7.036243603286195</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.24863702621394</v>
+        <v>37.99416936929111</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.51807774898025</v>
+        <v>46.55816819887605</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.9585661580034</v>
+        <v>13.91618468316194</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.60132297572116</v>
+        <v>30.32967646274226</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.25325751600177</v>
+        <v>38.25481925947246</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.61556437835273</v>
+        <v>-2.160351389213943</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.4460953333283</v>
+        <v>25.1601369056347</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.79988932254844</v>
+        <v>29.7895972502992</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>24.36257313823163</v>
+        <v>1.778066269033687</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.80242448645981</v>
+        <v>45.14542969647162</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.16684017188408</v>
+        <v>57.45563523302876</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.36193434419759</v>
+        <v>50.87423201805395</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>51.10275840625209</v>
+        <v>61.46259311203143</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>53.02016673550565</v>
+        <v>68.14025184406104</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>34.45204070380129</v>
+        <v>8.914059031352181</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.7079258169632</v>
+        <v>46.53329955988009</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>50.02192313264183</v>
+        <v>57.31352810207618</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>4.444793594385676</v>
+        <v>23.56774467268029</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.42345063872954</v>
+        <v>28.81130895839324</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.13327744394839</v>
+        <v>36.01897206836436</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-3.296602081486316</v>
+        <v>25.51020344904786</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.07544201720283</v>
+        <v>46.29375118276582</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>18.48949082225439</v>
+        <v>47.65718268120426</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>1.694684027159731</v>
+        <v>19.69328289540456</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.71194826285392</v>
+        <v>50.42814701865369</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.04954860575132</v>
+        <v>54.28293980245847</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.76440968932972</v>
+        <v>41.91134320626129</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.57566146268201</v>
+        <v>47.46078801082167</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.60677547879664</v>
+        <v>50.25314063267037</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.46258152480698</v>
+        <v>28.98728939053318</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.03226841112733</v>
+        <v>34.42701432701354</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.49717640901817</v>
+        <v>45.85246566836567</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>9.308129477042593</v>
+        <v>22.19366232532872</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.79859729287335</v>
+        <v>33.41228574142146</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.46335304228733</v>
+        <v>39.57042111159309</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.556039807880442</v>
+        <v>24.60479105436271</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.27312150792989</v>
+        <v>40.26449205316024</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.75713121591009</v>
+        <v>44.79376091067283</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>6.450644297017835</v>
+        <v>10.98544934409547</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.89958411762253</v>
+        <v>41.05863885334128</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.2452827599008</v>
+        <v>52.78067857605572</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.20726078077713</v>
+        <v>41.38618429400437</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.23159943071085</v>
+        <v>52.12417839677327</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.32041502695979</v>
+        <v>57.32353408687588</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.73962153301677</v>
+        <v>18.98061510395148</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.76373867009286</v>
+        <v>38.82346037090808</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.17989229674843</v>
+        <v>48.93478069785543</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.35776782029741</v>
+        <v>22.46455716114217</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.69408096330938</v>
+        <v>33.42889215583007</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.54532098006769</v>
+        <v>40.50306482000094</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>9.353126406004174</v>
+        <v>22.46770110294192</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.04309106974762</v>
+        <v>42.52370905844053</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.59456008073061</v>
+        <v>45.89783369040093</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>14.37769160719966</v>
+        <v>11.60999937041892</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.71251196055973</v>
+        <v>47.71043161366954</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>37.26881040078469</v>
+        <v>60.14553914470135</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.4844820612567</v>
+        <v>54.61235422185719</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.51808736987844</v>
+        <v>64.81197617378372</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>44.5432477618174</v>
+        <v>71.601241331807</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.0915104022338</v>
+        <v>20.68983181980188</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.96119305444905</v>
+        <v>46.92708886934032</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>41.4218410228335</v>
+        <v>59.08179086627395</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.57286284964284</v>
+        <v>8.315125431049978</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.88009080370357</v>
+        <v>25.37364656098069</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.38597467168698</v>
+        <v>32.46147208655188</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>5.549182787765101</v>
+        <v>3.071032162583577</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.0295588734467</v>
+        <v>26.8958704155564</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.22894793889551</v>
+        <v>28.06687321243905</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>10.24156953937312</v>
+        <v>7.961491091917836</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.33337074422895</v>
+        <v>46.68384160497037</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.47389307260229</v>
+        <v>49.72496218099171</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.02567967298736</v>
+        <v>43.78590899909321</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.51778725736821</v>
+        <v>48.19696937264085</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.41867484932231</v>
+        <v>49.71672148480171</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>19.14418788918894</v>
+        <v>6.802875494355177</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.14389103793995</v>
+        <v>33.97255300410463</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.43256993429493</v>
+        <v>40.33812329423331</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.93728656699033</v>
+        <v>4.411595919495696</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.73191904405165</v>
+        <v>25.55030635736247</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.19301926822021</v>
+        <v>31.1530087635816</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>9.88812051976339</v>
+        <v>-1.485049944644558</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.69914889633017</v>
+        <v>18.00680822430931</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.9631397919019</v>
+        <v>22.35380932030935</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>14.48870689460806</v>
+        <v>-1.435344097621893</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.99517397829494</v>
+        <v>34.47193030678304</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.14043458313808</v>
+        <v>44.14080392266348</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.92450450154845</v>
+        <v>37.83909442713615</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>40.61695386053563</v>
+        <v>46.77727066845354</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.57043763399145</v>
+        <v>49.93254696883425</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.89088289839111</v>
+        <v>-2.332206124206564</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.31856658631006</v>
+        <v>34.0748241812598</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.56191669853406</v>
+        <v>40.98774123153228</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.40149483402194</v>
+        <v>6.198064633337182</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.04555395889624</v>
+        <v>27.527956385525</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.68369715254865</v>
+        <v>35.78392758749739</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.06736657760773</v>
+        <v>-2.711398440351175</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.85197923907403</v>
+        <v>21.3641702257783</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>38.17945291238053</v>
+        <v>25.87171805894046</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.7905110135427</v>
+        <v>-0.869005050324958</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.18380003721005</v>
+        <v>41.19735570487255</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.52723274078229</v>
+        <v>53.95767947296973</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.56358962545571</v>
+        <v>51.15712796746389</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>48.26497649298339</v>
+        <v>61.18218232691554</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>50.16134522443414</v>
+        <v>67.28966770800319</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.60006454134854</v>
+        <v>-0.3072114560080905</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.88106515284453</v>
+        <v>43.79190654847271</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.16460597922752</v>
+        <v>52.66400581787055</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.119270274808406</v>
+        <v>5.798855184174698</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.88972482733032</v>
+        <v>9.790362166644726</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.3019262612115</v>
+        <v>16.18981793432327</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.198300331734607</v>
+        <v>-2.376428027483499</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.05821437914717</v>
+        <v>9.842490278265089</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.19328962784615</v>
+        <v>11.74450073523538</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.744835797049166</v>
+        <v>2.896135313554609</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.21765100009434</v>
+        <v>21.06307936850638</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.27008221704587</v>
+        <v>26.39842840793997</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.03547239611133</v>
+        <v>16.22871148569975</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.35129548817012</v>
+        <v>20.65156073569538</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.22848333804576</v>
+        <v>23.60579034237024</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.54831974498438</v>
+        <v>3.712664341618975</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.08697053199414</v>
+        <v>9.409171951584355</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.30821915242037</v>
+        <v>14.65311975528952</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.6761857796752</v>
+        <v>7.156086344015165</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.9368830156244</v>
+        <v>20.31774765417369</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.31392395837954</v>
+        <v>27.1141668671125</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.74390466381276</v>
+        <v>0.1450454921999409</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.94128018863529</v>
+        <v>12.2647083882849</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.14760845275811</v>
+        <v>18.39769345648696</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>11.19836911990589</v>
+        <v>0.9500177171569391</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.0884755361933</v>
+        <v>23.07647006246529</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.15529737090617</v>
+        <v>37.48445836883761</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.1447355549293</v>
+        <v>25.20932313881799</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.66133604527028</v>
+        <v>36.07580465687737</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.58961006781632</v>
+        <v>40.9497853249258</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.49890385598971</v>
+        <v>0.7411606698403119</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.47024276833366</v>
+        <v>23.80555851895075</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.64931690250759</v>
+        <v>31.22997699598442</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.15965482933414</v>
+        <v>10.55232135228339</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.28503713226792</v>
+        <v>23.58693111381618</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.82734493499204</v>
+        <v>31.69863788970335</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>13.9158009688145</v>
+        <v>-0.8936380836999689</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.09729950204732</v>
+        <v>16.57512487331265</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.35816001455563</v>
+        <v>21.65478351490164</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>18.49003865854105</v>
+        <v>3.10113073635641</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.28315460265859</v>
+        <v>31.1220631890843</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>39.53567136709479</v>
+        <v>46.82419710649332</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.76185042068416</v>
+        <v>39.64860682829341</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.28511565044636</v>
+        <v>49.39012742624921</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>46.15551314577435</v>
+        <v>55.50958837564725</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.18721279058744</v>
+        <v>5.207973303290132</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.01712671224846</v>
+        <v>34.06153589782237</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.23432913393094</v>
+        <v>42.55531051518996</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>3.917479724008619</v>
+        <v>8.687636469765536</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.87016230873828</v>
+        <v>11.95959231143203</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.58127588664962</v>
+        <v>20.21085070105599</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-3.821896827087951</v>
+        <v>2.867153332839806</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>13.51860223355292</v>
+        <v>18.80048133733756</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.93484474305836</v>
+        <v>22.52860985573041</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1.158193841722404</v>
+        <v>6.481493206707029</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>19.14571180347387</v>
+        <v>29.91560417760952</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.48364495344155</v>
+        <v>35.89102182207382</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.21657936893583</v>
+        <v>24.23907744850729</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.01976542901117</v>
+        <v>30.69214863200136</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.05192095768104</v>
+        <v>35.58957773945139</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.92603433255166</v>
+        <v>8.778597659713128</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.48177674670421</v>
+        <v>15.93402518753841</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.94481028355649</v>
+        <v>27.53685494562832</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>8.749265419254648</v>
+        <v>8.406311113520587</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.2154128795585</v>
+        <v>18.36493055116219</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.8821591272157</v>
+        <v>26.76780665706636</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.9996882741323141</v>
+        <v>2.766737233850279</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>18.68702084848139</v>
+        <v>14.5024051714247</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.17390636937376</v>
+        <v>22.81664866503968</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>5.88295087711181</v>
+        <v>-0.4459726696132833</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.30370028491603</v>
+        <v>23.05318330882085</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.6504596144771</v>
+        <v>38.23436591670082</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.62893074984638</v>
+        <v>25.4909574809046</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>33.64548406120946</v>
+        <v>37.42816739320234</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>35.73547473264695</v>
+        <v>45.29582043331875</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.1722467297034</v>
+        <v>0.2796184816901786</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.18324524622175</v>
+        <v>22.19057224025464</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>32.59793122559422</v>
+        <v>33.58404635873619</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.8344716996755</v>
+        <v>8.468710120516036</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.1465863737124</v>
+        <v>17.89317354770976</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.99932659942293</v>
+        <v>27.16465261336585</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.832054917332556</v>
+        <v>-0.1993317876415261</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.49264881262851</v>
+        <v>15.71545776160973</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.0464891107963</v>
+        <v>22.87421880988045</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>13.84564008514486</v>
+        <v>-0.8597153387995746</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>32.15262269525558</v>
+        <v>28.45535799044272</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.70926300941748</v>
+        <v>44.17212075670191</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.94190345816076</v>
+        <v>38.11862909522627</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.96724294788534</v>
+        <v>48.91034542343347</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>43.99347325501067</v>
+        <v>58.26445111149759</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.56001765727476</v>
+        <v>1.520493411599702</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.41641904220442</v>
+        <v>29.11851320560383</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.87521295843045</v>
+        <v>42.85682004058218</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.14021231278637</v>
+        <v>20.63913808645464</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.05234216251213</v>
+        <v>26.82470457079614</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.49168547240033</v>
+        <v>35.56612203577487</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.358806420796592</v>
+        <v>8.112784926622084</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.45440876649281</v>
+        <v>35.16257282965441</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.58858227865881</v>
+        <v>37.18322194900603</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.96479198689319</v>
+        <v>16.17447846085899</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.64160612819422</v>
+        <v>54.75162945398314</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.72506714017466</v>
+        <v>57.85877005914342</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.44941486002963</v>
+        <v>43.47121932025682</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>38.84582984086296</v>
+        <v>49.15848692793722</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.7130344744102</v>
+        <v>50.91918837988064</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.84249591498092</v>
+        <v>29.34430760743554</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.48564566383484</v>
+        <v>37.79630020832094</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>37.75788357107153</v>
+        <v>50.10570074022293</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.42036722794477</v>
+        <v>21.09141440864174</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.81738938310576</v>
+        <v>31.92585830939088</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.20966815662088</v>
+        <v>38.13978102409781</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.60280004124916</v>
+        <v>4.072001021394556</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.02712420281286</v>
+        <v>25.20290384429347</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.22361674272341</v>
+        <v>29.48366942353078</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>18.12125363753438</v>
+        <v>6.925260445951011</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.20986146580692</v>
+        <v>43.66627225074183</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>39.29595408520447</v>
+        <v>53.37609228388999</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.25051620391397</v>
+        <v>41.65775171495085</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>43.84644760005516</v>
+        <v>49.98560101882546</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>45.76487231448394</v>
+        <v>54.61905580606427</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>27.489431228225</v>
+        <v>18.01302011165488</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>39.5623048836481</v>
+        <v>40.55242444269601</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.78420900965077</v>
+        <v>48.58272027531427</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.66179819808961</v>
+        <v>20.14469909343073</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.91257241571296</v>
+        <v>31.72868449495657</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>44.48107509850068</v>
+        <v>39.96344533810465</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.54948329078876</v>
+        <v>0.5006629656709691</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.9497778291742</v>
+        <v>26.64536441579112</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.20814341734622</v>
+        <v>31.32212718930772</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.18697050726611</v>
+        <v>5.685430381296484</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.16773225504858</v>
+        <v>49.58533390868455</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>46.4511129351927</v>
+        <v>61.88688012978433</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.64565102934235</v>
+        <v>53.15127199660959</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>51.24975991204512</v>
+        <v>63.11842714271596</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>53.11117744989129</v>
+        <v>68.51440061222318</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.95485610338444</v>
+        <v>18.4715061643616</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.88443029648144</v>
+        <v>48.5950417709209</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>50.14770543184212</v>
+        <v>59.60992285073901</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>13.19964193626667</v>
+        <v>6.721416717455057</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.48216817716486</v>
+        <v>23.86202817163368</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.99791057522751</v>
+        <v>30.29716310356824</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.206455064498861</v>
+        <v>2.17674034505491</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>22.66479850105809</v>
+        <v>26.06710467593457</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.86992868880044</v>
+        <v>25.54843567263397</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>10.88145734485607</v>
+        <v>6.125525680140186</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.94371539142039</v>
+        <v>44.39461173039021</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>32.09472072927529</v>
+        <v>48.17445721360301</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.65645521469839</v>
+        <v>41.27644777209794</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>36.13473470065785</v>
+        <v>47.01262873594639</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.04133799098887</v>
+        <v>46.96435862545074</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>19.79099212731412</v>
+        <v>3.360852207380177</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.77105023531403</v>
+        <v>30.32712791059744</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.06255565870693</v>
+        <v>38.28505550542896</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.59462385667403</v>
+        <v>6.155347666149439</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.36467746286436</v>
+        <v>27.72192039161465</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.83483595143097</v>
+        <v>32.96054723726715</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>10.57788333163634</v>
+        <v>0.6900705118591333</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.36696137709659</v>
+        <v>20.28108793859359</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.63632049196265</v>
+        <v>23.4116908385801</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>15.16227486914299</v>
+        <v>0.03945015680612585</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.63918432988118</v>
+        <v>36.18304403423441</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.79440377422005</v>
+        <v>47.28315955225362</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.58728999343451</v>
+        <v>39.55883222802713</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.26595685095292</v>
+        <v>49.16899368414319</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>43.22472056522653</v>
+        <v>51.73289212152612</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>24.56928063976294</v>
+        <v>-2.386308950849823</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.97721291679375</v>
+        <v>34.42352146954737</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.2228553877959</v>
+        <v>43.35401714124315</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.99390759102592</v>
+        <v>6.800345345010598</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.61461378931663</v>
+        <v>28.36769306381395</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>42.26123247571459</v>
+        <v>36.253877594033</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>17.68888498224443</v>
+        <v>-1.871473867676045</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.45184709550853</v>
+        <v>22.40458282069748</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>38.78405174319577</v>
+        <v>25.26445474763607</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>22.39388730510895</v>
+        <v>-0.8912298721670737</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>39.75896039144413</v>
+        <v>41.18271082262238</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>44.111426972522</v>
+        <v>54.77902131759278</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.15468241203548</v>
+        <v>50.53556516410727</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>48.84145664886919</v>
+        <v>60.41538077970473</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>50.74433850009633</v>
+        <v>66.21916156998323</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>32.20735753896081</v>
+        <v>-2.310099044154597</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.46919900939679</v>
+        <v>41.63028187810549</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>47.75539301304478</v>
+        <v>52.44592501046223</v>
       </c>
     </row>
   </sheetData>
